--- a/src/ClassTable/tablefile.xlsx
+++ b/src/ClassTable/tablefile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\Source\Repos\MyBlueHorizon\ClassTable\src\ClassTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407ADD04-3FCF-4C38-8EE4-1509D955755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1500" windowWidth="20700" windowHeight="11385" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程序说明" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,8 @@
     <sheet name="周日" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -55,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,11 +216,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="强调文字颜色 3" xfId="2" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="强调文字颜色 6" xfId="4" builtinId="49"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 3" xfId="2" builtinId="37"/>
+    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="着色 6" xfId="4" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,23 +490,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -510,7 +516,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -518,7 +524,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -526,7 +532,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -534,7 +540,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -544,7 +550,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -552,7 +558,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -560,7 +566,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -568,7 +574,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -576,7 +582,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -596,19 +602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -618,7 +624,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -628,7 +634,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3"/>
@@ -636,7 +642,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4"/>
@@ -644,7 +650,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5"/>
@@ -652,7 +658,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6"/>
@@ -660,7 +666,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7"/>
@@ -668,7 +674,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8"/>
@@ -676,7 +682,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -686,7 +692,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10"/>
@@ -694,7 +700,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11"/>
@@ -702,7 +708,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12"/>
@@ -710,7 +716,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13"/>
@@ -718,7 +724,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14"/>
@@ -726,7 +732,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15"/>
@@ -758,81 +764,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
@@ -860,81 +866,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
@@ -963,81 +969,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
@@ -1066,81 +1072,81 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
@@ -1168,81 +1174,81 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
@@ -1271,81 +1277,81 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
